--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Key</t>
   </si>
@@ -43,19 +43,40 @@
     <t>Hybrid</t>
   </si>
   <si>
-    <t>check message</t>
+    <t>check Property Avaibility message</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Passed for Francisstraat, Waterloo, Suriname, Date: 2025-01-23 to 2025-02-03</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Failed for Francisstraat, Waterloo, Suriname, Date: 2025-01-23 to 2025-02-03</t>
+    <t>Avaibility message checking Passed for BC-11374370-Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for EP-109887698-K Sweets Bromley Apartments : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-12776698-Fox Lane Farm Cottage : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for EP-25103224-Avis Hotel Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-12641510-Experience London with Easy : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-12023699-Cosy entire one bedroom hideaway : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-11861941-Luxury Home in Lewisham : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-11153876-Double Room With Free WiFi Keedonwood Road : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-11186573-3rd Studio Flat With Private Toilet and Bathroom Setup For Family Enjoyment 134 Keedonwood Road Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-11380194-Cosy Smart/Small Double Room in Keedonwood Road Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
   </si>
 </sst>
 </file>
@@ -463,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -480,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -500,10 +521,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -520,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -540,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -560,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -580,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -600,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -620,10 +641,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -49,34 +49,34 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Avaibility message checking Passed for BC-11374370-Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for EP-109887698-K Sweets Bromley Apartments : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-12776698-Fox Lane Farm Cottage : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for EP-25103224-Avis Hotel Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-12641510-Experience London with Easy : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-12023699-Cosy entire one bedroom hideaway : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-11861941-Luxury Home in Lewisham : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-11153876-Double Room With Free WiFi Keedonwood Road : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-11186573-3rd Studio Flat With Private Toilet and Bathroom Setup For Family Enjoyment 134 Keedonwood Road Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
-  </si>
-  <si>
-    <t>Avaibility message checking Passed for BC-11380194-Cosy Smart/Small Double Room in Keedonwood Road Bromley : Hayesford Park Drive, Bromley, UK, Date: 2025-01-29 to 2025-01-30</t>
+    <t>Avaibility message checking Passed for HA-1217671111-Luxurious, Historic 4BR Home in Downtown Winston : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-2659760-The Zevely Inn : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for EP-96547859-Summit Street Inns : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for HA-3212119192-Home in the Kernersville near Winston Salem, Greensboro, High Point : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-11480649-Winston-Salem Condo with Balcony Steps to Golf! : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for EP-19926432-The Zevely Inn : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for HA-3213166035-Remodeled historic home! Steps away from dining &amp; shops - Easy walk to Old Salem : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for BC-10435410-Renovated House In Buena Vista : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for EP-102129746-Winston-salem Condo w/Balcony: Steps to Golf! : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
+  </si>
+  <si>
+    <t>Avaibility message checking Passed for HA-3212847775-Log House in the Country : New Forest Drive, Winston-Salem, Davidson County, NC, USA, Date: 2025-02-01 to 2025-02-13</t>
   </si>
 </sst>
 </file>
